--- a/Tasks/Task_List.xlsx
+++ b/Tasks/Task_List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\Miguel\HSHL\4. Vierte Semester\Prototyping\microbot\Tasks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9016DE01-B63B-4060-B24B-7AB1998849A7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DEA015E-97BD-414D-8CC2-232C3F2939DF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="35">
   <si>
     <t>RESCUBOT</t>
   </si>
@@ -116,6 +116,15 @@
   </si>
   <si>
     <t>Driving sub-system</t>
+  </si>
+  <si>
+    <t>Diagrams review</t>
+  </si>
+  <si>
+    <t>Upgrade the diagrams regarding feedback from professor</t>
+  </si>
+  <si>
+    <t>Review diagrmas</t>
   </si>
 </sst>
 </file>
@@ -125,7 +134,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\-mm\-yyyy"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -162,8 +171,14 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -208,24 +223,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF9900"/>
-        <bgColor rgb="FFFF9900"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF00FF00"/>
         <bgColor rgb="FF00FF00"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF6600"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
+        <bgColor rgb="FFFF9900"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -345,11 +372,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -362,31 +417,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -416,12 +450,54 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="12" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="12" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="10" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF6600"/>
+      <color rgb="FF00FF00"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -634,9 +710,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A3:O9"/>
+  <dimension ref="A3:O10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -651,67 +729,67 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="17"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="10"/>
     </row>
     <row r="4" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="18"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="20"/>
+      <c r="A4" s="11"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="13"/>
     </row>
     <row r="5" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="22"/>
-      <c r="F5" s="23" t="s">
+      <c r="E5" s="15"/>
+      <c r="F5" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="22"/>
-      <c r="H5" s="24" t="s">
+      <c r="G5" s="15"/>
+      <c r="H5" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="22"/>
-      <c r="J5" s="25" t="s">
+      <c r="I5" s="15"/>
+      <c r="J5" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="22"/>
-      <c r="L5" s="26" t="s">
+      <c r="K5" s="15"/>
+      <c r="L5" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="M5" s="22"/>
-      <c r="N5" s="27" t="s">
+      <c r="M5" s="15"/>
+      <c r="N5" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="O5" s="22"/>
+      <c r="O5" s="15"/>
     </row>
     <row r="6" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
@@ -773,133 +851,168 @@
       <c r="D7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="21">
         <v>44297</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="22">
         <v>44296</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="22">
         <v>44296</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K7" s="7">
+      <c r="K7" s="23">
         <v>44297</v>
       </c>
       <c r="L7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M7" s="7">
+      <c r="M7" s="23">
         <v>44297</v>
       </c>
       <c r="N7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O7" s="6">
+      <c r="O7" s="21">
         <v>44297</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="8">
+      <c r="A8" s="6">
         <v>2</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="22">
         <v>44307</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="22">
         <v>44307</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="H8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="10">
+      <c r="I8" s="24">
         <v>44307</v>
       </c>
-      <c r="J8" s="8" t="s">
+      <c r="J8" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K8" s="11">
+      <c r="K8" s="25">
         <v>44307</v>
       </c>
-      <c r="L8" s="8" t="s">
+      <c r="L8" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="M8" s="12">
+      <c r="M8" s="26">
         <v>44307</v>
       </c>
-      <c r="N8" s="8" t="s">
+      <c r="N8" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="O8" s="11">
+      <c r="O8" s="25">
         <v>44307</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="13">
+      <c r="A9" s="27">
         <v>3</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="28">
         <v>44315</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="28">
         <v>44315</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="H9" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="I9" s="14">
+      <c r="I9" s="30">
         <v>44315</v>
       </c>
-      <c r="J9" s="8" t="s">
+      <c r="J9" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="K9" s="7">
+      <c r="K9" s="28">
         <v>44314</v>
       </c>
-      <c r="L9" s="8" t="s">
+      <c r="L9" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="M9" s="7">
+      <c r="M9" s="28">
         <v>44315</v>
       </c>
-      <c r="N9" s="8" t="s">
+      <c r="N9" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="O9" s="7">
+      <c r="O9" s="28">
         <v>44314</v>
       </c>
+    </row>
+    <row r="10" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="32">
+        <v>4</v>
+      </c>
+      <c r="B10" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="32"/>
+      <c r="F10" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="32"/>
+      <c r="H10" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10" s="32"/>
+      <c r="J10" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="K10" s="32"/>
+      <c r="L10" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="M10" s="32"/>
+      <c r="N10" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="O10" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -912,5 +1025,6 @@
     <mergeCell ref="N5:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Tasks/Task_List.xlsx
+++ b/Tasks/Task_List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\Miguel\HSHL\4. Vierte Semester\Prototyping\microbot\Tasks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DEA015E-97BD-414D-8CC2-232C3F2939DF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D751AFF-2810-4ECE-890D-3B293B944E88}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -223,32 +223,32 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00FF00"/>
-        <bgColor rgb="FF00FF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00FF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFF6600"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00FF00"/>
+        <fgColor rgb="FFFF6600"/>
         <bgColor rgb="FFFF9900"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00FF00"/>
+        <fgColor rgb="FFFF6600"/>
+        <bgColor rgb="FF00FF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF6600"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -450,41 +450,41 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="10" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="12" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="12" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="12" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="10" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -713,7 +713,7 @@
   <dimension ref="A3:O10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -851,37 +851,37 @@
       <c r="D7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="21">
+      <c r="E7" s="27">
         <v>44297</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="22">
+      <c r="G7" s="21">
         <v>44296</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="22">
+      <c r="I7" s="21">
         <v>44296</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K7" s="23">
+      <c r="K7" s="21">
         <v>44297</v>
       </c>
       <c r="L7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M7" s="23">
+      <c r="M7" s="21">
         <v>44297</v>
       </c>
       <c r="N7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O7" s="21">
+      <c r="O7" s="27">
         <v>44297</v>
       </c>
     </row>
@@ -898,121 +898,121 @@
       <c r="D8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="22">
+      <c r="E8" s="21">
         <v>44307</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="22">
+      <c r="G8" s="21">
         <v>44307</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="24">
+      <c r="I8" s="28">
         <v>44307</v>
       </c>
       <c r="J8" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K8" s="25">
+      <c r="K8" s="30">
         <v>44307</v>
       </c>
       <c r="L8" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="M8" s="26">
+      <c r="M8" s="32">
         <v>44307</v>
       </c>
       <c r="N8" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="O8" s="25">
+      <c r="O8" s="30">
         <v>44307</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="27">
+      <c r="A9" s="22">
         <v>3</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="D9" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="28">
+      <c r="E9" s="23">
         <v>44315</v>
       </c>
-      <c r="F9" s="29" t="s">
+      <c r="F9" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="28">
+      <c r="G9" s="23">
         <v>44315</v>
       </c>
-      <c r="H9" s="29" t="s">
+      <c r="H9" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="I9" s="30">
+      <c r="I9" s="29">
         <v>44315</v>
       </c>
-      <c r="J9" s="29" t="s">
+      <c r="J9" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="K9" s="28">
+      <c r="K9" s="31">
         <v>44314</v>
       </c>
-      <c r="L9" s="29" t="s">
+      <c r="L9" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="M9" s="28">
+      <c r="M9" s="23">
         <v>44315</v>
       </c>
-      <c r="N9" s="29" t="s">
+      <c r="N9" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="O9" s="28">
+      <c r="O9" s="23">
         <v>44314</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="32">
+      <c r="A10" s="26">
         <v>4</v>
       </c>
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="31" t="s">
+      <c r="C10" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="31" t="s">
+      <c r="D10" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="32"/>
-      <c r="F10" s="31" t="s">
+      <c r="E10" s="26"/>
+      <c r="F10" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="G10" s="32"/>
-      <c r="H10" s="31" t="s">
+      <c r="G10" s="26"/>
+      <c r="H10" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="I10" s="32"/>
-      <c r="J10" s="31" t="s">
+      <c r="I10" s="26"/>
+      <c r="J10" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="K10" s="32"/>
-      <c r="L10" s="31" t="s">
+      <c r="K10" s="26"/>
+      <c r="L10" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="M10" s="32"/>
-      <c r="N10" s="31" t="s">
+      <c r="M10" s="26"/>
+      <c r="N10" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="O10" s="32"/>
+      <c r="O10" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/Tasks/Task_List.xlsx
+++ b/Tasks/Task_List.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\Miguel\HSHL\4. Vierte Semester\Prototyping\microbot\Tasks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marwahassan/Desktop/Git/Tasks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D751AFF-2810-4ECE-890D-3B293B944E88}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19B4EEDF-F544-AC4C-86E0-A0C745BEA1B2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -404,7 +404,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -422,6 +422,42 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="10" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="12" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -450,41 +486,8 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="10" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="12" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -713,85 +716,85 @@
   <dimension ref="A3:O10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" customWidth="1"/>
-    <col min="3" max="3" width="48.28515625" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" customWidth="1"/>
-    <col min="8" max="8" width="21.140625" customWidth="1"/>
-    <col min="10" max="10" width="22.42578125" customWidth="1"/>
-    <col min="12" max="12" width="17.7109375" customWidth="1"/>
-    <col min="14" max="14" width="17.140625" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" customWidth="1"/>
+    <col min="2" max="2" width="20.5" customWidth="1"/>
+    <col min="3" max="3" width="48.33203125" customWidth="1"/>
+    <col min="4" max="4" width="20.5" customWidth="1"/>
+    <col min="8" max="8" width="21.1640625" customWidth="1"/>
+    <col min="10" max="10" width="22.5" customWidth="1"/>
+    <col min="12" max="12" width="17.6640625" customWidth="1"/>
+    <col min="14" max="14" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+      <c r="A3" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="10"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="22"/>
     </row>
-    <row r="4" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="11"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="13"/>
+    <row r="4" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+      <c r="A4" s="23"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="25"/>
     </row>
-    <row r="5" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" ht="13" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="16" t="s">
+      <c r="E5" s="27"/>
+      <c r="F5" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="17" t="s">
+      <c r="G5" s="27"/>
+      <c r="H5" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="15"/>
-      <c r="J5" s="18" t="s">
+      <c r="I5" s="27"/>
+      <c r="J5" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="15"/>
-      <c r="L5" s="19" t="s">
+      <c r="K5" s="27"/>
+      <c r="L5" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="M5" s="15"/>
-      <c r="N5" s="20" t="s">
+      <c r="M5" s="27"/>
+      <c r="N5" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="O5" s="15"/>
+      <c r="O5" s="27"/>
     </row>
-    <row r="6" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" ht="13" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
@@ -838,7 +841,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" ht="28" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <v>1</v>
       </c>
@@ -851,41 +854,41 @@
       <c r="D7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="27">
+      <c r="E7" s="14">
         <v>44297</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="21">
+      <c r="G7" s="8">
         <v>44296</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="21">
+      <c r="I7" s="8">
         <v>44296</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K7" s="21">
+      <c r="K7" s="8">
         <v>44297</v>
       </c>
       <c r="L7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M7" s="21">
+      <c r="M7" s="8">
         <v>44297</v>
       </c>
       <c r="N7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O7" s="27">
+      <c r="O7" s="14">
         <v>44297</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="6">
         <v>2</v>
       </c>
@@ -898,121 +901,123 @@
       <c r="D8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="21">
+      <c r="E8" s="8">
         <v>44307</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="21">
+      <c r="G8" s="8">
         <v>44307</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="28">
+      <c r="I8" s="15">
         <v>44307</v>
       </c>
       <c r="J8" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K8" s="30">
+      <c r="K8" s="17">
         <v>44307</v>
       </c>
       <c r="L8" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="M8" s="32">
+      <c r="M8" s="19">
         <v>44307</v>
       </c>
       <c r="N8" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="O8" s="30">
+      <c r="O8" s="17">
         <v>44307</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="22">
+    <row r="9" spans="1:15" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="9">
         <v>3</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="23">
+      <c r="E9" s="10">
         <v>44315</v>
       </c>
-      <c r="F9" s="24" t="s">
+      <c r="F9" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="23">
+      <c r="G9" s="10">
         <v>44315</v>
       </c>
-      <c r="H9" s="24" t="s">
+      <c r="H9" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="I9" s="29">
+      <c r="I9" s="16">
         <v>44315</v>
       </c>
-      <c r="J9" s="24" t="s">
+      <c r="J9" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="K9" s="31">
+      <c r="K9" s="18">
         <v>44314</v>
       </c>
-      <c r="L9" s="24" t="s">
+      <c r="L9" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="M9" s="23">
+      <c r="M9" s="10">
         <v>44315</v>
       </c>
-      <c r="N9" s="24" t="s">
+      <c r="N9" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="O9" s="23">
+      <c r="O9" s="10">
         <v>44314</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="26">
+    <row r="10" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="13">
         <v>4</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="26"/>
-      <c r="F10" s="25" t="s">
+      <c r="E10" s="13"/>
+      <c r="F10" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="G10" s="26"/>
-      <c r="H10" s="25" t="s">
+      <c r="G10" s="33">
+        <v>44319</v>
+      </c>
+      <c r="H10" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="I10" s="26"/>
-      <c r="J10" s="25" t="s">
+      <c r="I10" s="13"/>
+      <c r="J10" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="K10" s="26"/>
-      <c r="L10" s="25" t="s">
+      <c r="K10" s="13"/>
+      <c r="L10" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="M10" s="26"/>
-      <c r="N10" s="25" t="s">
+      <c r="M10" s="13"/>
+      <c r="N10" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="O10" s="26"/>
+      <c r="O10" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/Tasks/Task_List.xlsx
+++ b/Tasks/Task_List.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\$DTIJ00-5BN7QU316I22\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\Miguel\HSHL\4. Vierte Semester\Prototyping\microbot\Tasks\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AF8C5B9-0614-4825-9382-C3B295FB8266}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="36">
   <si>
     <t>RESCUBOT</t>
   </si>
@@ -124,12 +125,15 @@
   </si>
   <si>
     <t>Review diagrmas</t>
+  </si>
+  <si>
+    <t>03-05-2021</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\-mm\-yyyy"/>
   </numFmts>
@@ -182,7 +186,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -265,6 +269,12 @@
       <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -420,7 +430,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -477,6 +487,12 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="13" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="14" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -505,22 +521,25 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="13" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="14" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="164" fontId="3" fillId="15" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="15" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="15" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF00FF00"/>
       <color rgb="FFFF6600"/>
-      <color rgb="FF00FF00"/>
     </mruColors>
   </colors>
   <extLst>
@@ -731,92 +750,92 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A3:O10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" customWidth="1"/>
-    <col min="2" max="2" width="20.44140625" customWidth="1"/>
-    <col min="3" max="3" width="48.33203125" customWidth="1"/>
-    <col min="4" max="4" width="20.44140625" customWidth="1"/>
-    <col min="8" max="8" width="21.109375" customWidth="1"/>
-    <col min="10" max="10" width="22.44140625" customWidth="1"/>
-    <col min="12" max="12" width="17.6640625" customWidth="1"/>
-    <col min="14" max="14" width="17.109375" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
+    <col min="3" max="3" width="48.28515625" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" customWidth="1"/>
+    <col min="8" max="8" width="21.140625" customWidth="1"/>
+    <col min="10" max="10" width="22.42578125" customWidth="1"/>
+    <col min="12" max="12" width="17.7109375" customWidth="1"/>
+    <col min="14" max="14" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
+    <row r="3" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="23"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="25"/>
     </row>
-    <row r="4" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="24"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="26"/>
+    <row r="4" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="26"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="28"/>
     </row>
-    <row r="5" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="28"/>
-      <c r="F5" s="29" t="s">
+      <c r="E5" s="30"/>
+      <c r="F5" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="28"/>
-      <c r="H5" s="30" t="s">
+      <c r="G5" s="30"/>
+      <c r="H5" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="28"/>
-      <c r="J5" s="31" t="s">
+      <c r="I5" s="30"/>
+      <c r="J5" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="28"/>
-      <c r="L5" s="32" t="s">
+      <c r="K5" s="30"/>
+      <c r="L5" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="M5" s="28"/>
-      <c r="N5" s="33" t="s">
+      <c r="M5" s="30"/>
+      <c r="N5" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="O5" s="28"/>
+      <c r="O5" s="30"/>
     </row>
-    <row r="6" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
@@ -863,7 +882,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>1</v>
       </c>
@@ -876,13 +895,13 @@
       <c r="D7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="36">
         <v>44297</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="37">
         <v>44296</v>
       </c>
       <c r="H7" s="3" t="s">
@@ -894,7 +913,7 @@
       <c r="J7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K7" s="34">
+      <c r="K7" s="21">
         <v>44297</v>
       </c>
       <c r="L7" s="3" t="s">
@@ -910,7 +929,7 @@
         <v>44297</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>2</v>
       </c>
@@ -923,13 +942,13 @@
       <c r="D8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="37">
         <v>44307</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="37">
         <v>44307</v>
       </c>
       <c r="H8" s="6" t="s">
@@ -941,7 +960,7 @@
       <c r="J8" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K8" s="35">
+      <c r="K8" s="22">
         <v>44307</v>
       </c>
       <c r="L8" s="6" t="s">
@@ -957,7 +976,7 @@
         <v>44307</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
         <v>3</v>
       </c>
@@ -970,13 +989,13 @@
       <c r="D9" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="38">
         <v>44315</v>
       </c>
       <c r="F9" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="38">
         <v>44315</v>
       </c>
       <c r="H9" s="11" t="s">
@@ -1004,7 +1023,7 @@
         <v>44314</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="13">
         <v>4</v>
       </c>
@@ -1017,7 +1036,9 @@
       <c r="D10" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="13"/>
+      <c r="E10" s="13" t="s">
+        <v>35</v>
+      </c>
       <c r="F10" s="12" t="s">
         <v>34</v>
       </c>

--- a/Tasks/Task_List.xlsx
+++ b/Tasks/Task_List.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\$DTIJ00-5BN7QU316I22\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\Miguel\HSHL\4. Vierte Semester\Prototyping\microbot\Tasks\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{053852CB-6DB8-48DB-B80B-7C5536DA3614}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="36">
   <si>
     <t>RESCUBOT</t>
   </si>
@@ -124,12 +125,15 @@
   </si>
   <si>
     <t>Review diagrmas</t>
+  </si>
+  <si>
+    <t>03-05-2021</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\-mm\-yyyy"/>
   </numFmts>
@@ -182,7 +186,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -265,6 +269,12 @@
       <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -420,7 +430,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -472,14 +482,17 @@
     <xf numFmtId="164" fontId="2" fillId="12" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="8" fillId="13" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="14" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="13" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="14" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -508,22 +521,31 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="13" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="14" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="164" fontId="3" fillId="15" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="15" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="15" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="15" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF00FF00"/>
       <color rgb="FFFF6600"/>
-      <color rgb="FF00FF00"/>
     </mruColors>
   </colors>
   <extLst>
@@ -734,92 +756,92 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A3:O10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7:G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" customWidth="1"/>
-    <col min="2" max="2" width="20.44140625" customWidth="1"/>
-    <col min="3" max="3" width="48.33203125" customWidth="1"/>
-    <col min="4" max="4" width="20.44140625" customWidth="1"/>
-    <col min="8" max="8" width="21.109375" customWidth="1"/>
-    <col min="10" max="10" width="22.44140625" customWidth="1"/>
-    <col min="12" max="12" width="17.6640625" customWidth="1"/>
-    <col min="14" max="14" width="17.109375" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
+    <col min="3" max="3" width="48.28515625" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" customWidth="1"/>
+    <col min="8" max="8" width="21.140625" customWidth="1"/>
+    <col min="10" max="10" width="22.42578125" customWidth="1"/>
+    <col min="12" max="12" width="17.7109375" customWidth="1"/>
+    <col min="14" max="14" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+    <row r="3" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="24"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="25"/>
     </row>
-    <row r="4" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="25"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26"/>
-      <c r="O4" s="27"/>
+    <row r="4" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="26"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="28"/>
     </row>
-    <row r="5" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="29"/>
-      <c r="F5" s="30" t="s">
+      <c r="E5" s="30"/>
+      <c r="F5" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="29"/>
-      <c r="H5" s="31" t="s">
+      <c r="G5" s="30"/>
+      <c r="H5" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="29"/>
-      <c r="J5" s="32" t="s">
+      <c r="I5" s="30"/>
+      <c r="J5" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="29"/>
-      <c r="L5" s="33" t="s">
+      <c r="K5" s="30"/>
+      <c r="L5" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="M5" s="29"/>
-      <c r="N5" s="34" t="s">
+      <c r="M5" s="30"/>
+      <c r="N5" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="O5" s="29"/>
+      <c r="O5" s="30"/>
     </row>
-    <row r="6" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
@@ -866,7 +888,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>1</v>
       </c>
@@ -879,13 +901,13 @@
       <c r="D7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="36">
         <v>44297</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="37">
         <v>44296</v>
       </c>
       <c r="H7" s="3" t="s">
@@ -897,13 +919,13 @@
       <c r="J7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K7" s="20">
+      <c r="K7" s="19">
         <v>44297</v>
       </c>
       <c r="L7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M7" s="35">
+      <c r="M7" s="21">
         <v>44297</v>
       </c>
       <c r="N7" s="3" t="s">
@@ -913,7 +935,7 @@
         <v>44297</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>2</v>
       </c>
@@ -926,13 +948,13 @@
       <c r="D8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="37">
         <v>44307</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="37">
         <v>44307</v>
       </c>
       <c r="H8" s="6" t="s">
@@ -944,13 +966,13 @@
       <c r="J8" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K8" s="21">
+      <c r="K8" s="20">
         <v>44307</v>
       </c>
       <c r="L8" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="M8" s="36">
+      <c r="M8" s="22">
         <v>44307</v>
       </c>
       <c r="N8" s="6" t="s">
@@ -960,7 +982,7 @@
         <v>44307</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
         <v>3</v>
       </c>
@@ -973,13 +995,13 @@
       <c r="D9" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="38">
         <v>44315</v>
       </c>
       <c r="F9" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="38">
         <v>44315</v>
       </c>
       <c r="H9" s="11" t="s">
@@ -1007,7 +1029,7 @@
         <v>44314</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="13">
         <v>4</v>
       </c>
@@ -1020,11 +1042,13 @@
       <c r="D10" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="13"/>
+      <c r="E10" s="39" t="s">
+        <v>35</v>
+      </c>
       <c r="F10" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="G10" s="19">
+      <c r="G10" s="40">
         <v>44319</v>
       </c>
       <c r="H10" s="12" t="s">

--- a/Tasks/Task_List.xlsx
+++ b/Tasks/Task_List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\Miguel\HSHL\4. Vierte Semester\Prototyping\microbot\Tasks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{053852CB-6DB8-48DB-B80B-7C5536DA3614}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FC3055D-7816-4FB7-88BA-340F3041F952}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="38">
   <si>
     <t>RESCUBOT</t>
   </si>
@@ -128,6 +128,12 @@
   </si>
   <si>
     <t>03-05-2021</t>
+  </si>
+  <si>
+    <t>Presentation</t>
+  </si>
+  <si>
+    <t>Prepare for the presentation</t>
   </si>
 </sst>
 </file>
@@ -430,7 +436,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -493,6 +499,21 @@
     </xf>
     <xf numFmtId="164" fontId="6" fillId="14" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="15" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="15" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="15" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="15" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -521,21 +542,7 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="15" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="15" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="15" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="15" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -760,10 +767,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A3:O10"/>
+  <dimension ref="A3:O11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7:G10"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -779,67 +786,67 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="25"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="30"/>
     </row>
     <row r="4" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="26"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="28"/>
+      <c r="A4" s="31"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="33"/>
     </row>
     <row r="5" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="30"/>
-      <c r="F5" s="31" t="s">
+      <c r="E5" s="35"/>
+      <c r="F5" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="30"/>
-      <c r="H5" s="32" t="s">
+      <c r="G5" s="35"/>
+      <c r="H5" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="30"/>
-      <c r="J5" s="33" t="s">
+      <c r="I5" s="35"/>
+      <c r="J5" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="30"/>
-      <c r="L5" s="34" t="s">
+      <c r="K5" s="35"/>
+      <c r="L5" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="M5" s="30"/>
-      <c r="N5" s="35" t="s">
+      <c r="M5" s="35"/>
+      <c r="N5" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="O5" s="30"/>
+      <c r="O5" s="35"/>
     </row>
     <row r="6" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
@@ -901,13 +908,13 @@
       <c r="D7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="36">
+      <c r="E7" s="23">
         <v>44297</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="37">
+      <c r="G7" s="24">
         <v>44296</v>
       </c>
       <c r="H7" s="3" t="s">
@@ -948,13 +955,13 @@
       <c r="D8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="37">
+      <c r="E8" s="24">
         <v>44307</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="37">
+      <c r="G8" s="24">
         <v>44307</v>
       </c>
       <c r="H8" s="6" t="s">
@@ -995,13 +1002,13 @@
       <c r="D9" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="38">
+      <c r="E9" s="25">
         <v>44315</v>
       </c>
       <c r="F9" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="38">
+      <c r="G9" s="25">
         <v>44315</v>
       </c>
       <c r="H9" s="11" t="s">
@@ -1042,13 +1049,13 @@
       <c r="D10" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="39" t="s">
+      <c r="E10" s="26" t="s">
         <v>35</v>
       </c>
       <c r="F10" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="G10" s="40">
+      <c r="G10" s="27">
         <v>44319</v>
       </c>
       <c r="H10" s="12" t="s">
@@ -1067,6 +1074,29 @@
         <v>34</v>
       </c>
       <c r="O10" s="13"/>
+    </row>
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="41">
+        <v>5</v>
+      </c>
+      <c r="B11" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="41"/>
+      <c r="M11" s="41"/>
+      <c r="N11" s="41"/>
+      <c r="O11" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/Tasks/Task_List.xlsx
+++ b/Tasks/Task_List.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11012"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\Miguel\HSHL\4. Vierte Semester\Prototyping\microbot\Tasks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marwahassan/Desktop/Git/Tasks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FC3055D-7816-4FB7-88BA-340F3041F952}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6669005A-B21E-C04A-897E-410D6E400A71}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="54">
   <si>
     <t>RESCUBOT</t>
   </si>
@@ -130,10 +130,58 @@
     <t>03-05-2021</t>
   </si>
   <si>
-    <t>Presentation</t>
-  </si>
-  <si>
-    <t>Prepare for the presentation</t>
+    <t>Prototypying task 1</t>
+  </si>
+  <si>
+    <t>Prototypying task 2</t>
+  </si>
+  <si>
+    <t>Prototypying task 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shared tasks based on required Presention </t>
+  </si>
+  <si>
+    <t>Solidwork (3Dmodel ,Legs ,Case)</t>
+  </si>
+  <si>
+    <t>Solidwork (turbine)</t>
+  </si>
+  <si>
+    <t>Update chassis hand sketch</t>
+  </si>
+  <si>
+    <t>Calculate power consumption</t>
+  </si>
+  <si>
+    <t>Calculate components weight</t>
+  </si>
+  <si>
+    <t>2D animation ,solid work (chassis )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Materials needed +Chassis hand sktch </t>
+  </si>
+  <si>
+    <t xml:space="preserve">arms handsketch </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dom sketch </t>
+  </si>
+  <si>
+    <t xml:space="preserve">small trbuine </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Big turbine hand sketch </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Legs hand sketch </t>
+  </si>
+  <si>
+    <t>shared tasks based on required Presention (research on different techniques to walk on land and drive on water )</t>
+  </si>
+  <si>
+    <t>Research</t>
   </si>
 </sst>
 </file>
@@ -436,7 +484,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -515,6 +563,7 @@
     <xf numFmtId="14" fontId="0" fillId="15" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -542,7 +591,10 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="15" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="12" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -767,88 +819,89 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A3:O11"/>
+  <dimension ref="A3:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" customWidth="1"/>
-    <col min="3" max="3" width="48.28515625" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" customWidth="1"/>
-    <col min="8" max="8" width="21.140625" customWidth="1"/>
-    <col min="10" max="10" width="22.42578125" customWidth="1"/>
-    <col min="12" max="12" width="17.7109375" customWidth="1"/>
-    <col min="14" max="14" width="17.140625" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" customWidth="1"/>
+    <col min="2" max="2" width="20.5" customWidth="1"/>
+    <col min="3" max="3" width="98.83203125" customWidth="1"/>
+    <col min="4" max="4" width="33" customWidth="1"/>
+    <col min="6" max="6" width="38.83203125" customWidth="1"/>
+    <col min="8" max="8" width="24.1640625" customWidth="1"/>
+    <col min="10" max="10" width="25.33203125" customWidth="1"/>
+    <col min="12" max="12" width="24.83203125" customWidth="1"/>
+    <col min="14" max="14" width="32.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="28" t="s">
+    <row r="3" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+      <c r="A3" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="31"/>
     </row>
-    <row r="4" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="31"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="32"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="32"/>
-      <c r="O4" s="33"/>
+    <row r="4" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+      <c r="A4" s="32"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="34"/>
     </row>
-    <row r="5" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" ht="13" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
-      <c r="D5" s="34" t="s">
+      <c r="D5" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="35"/>
-      <c r="F5" s="36" t="s">
+      <c r="E5" s="36"/>
+      <c r="F5" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="35"/>
-      <c r="H5" s="37" t="s">
+      <c r="G5" s="36"/>
+      <c r="H5" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="35"/>
-      <c r="J5" s="38" t="s">
+      <c r="I5" s="36"/>
+      <c r="J5" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="35"/>
-      <c r="L5" s="39" t="s">
+      <c r="K5" s="36"/>
+      <c r="L5" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="M5" s="35"/>
-      <c r="N5" s="40" t="s">
+      <c r="M5" s="36"/>
+      <c r="N5" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="O5" s="35"/>
+      <c r="O5" s="36"/>
     </row>
-    <row r="6" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" ht="13" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
@@ -895,7 +948,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" ht="28" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <v>1</v>
       </c>
@@ -942,7 +995,7 @@
         <v>44297</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="6">
         <v>2</v>
       </c>
@@ -989,7 +1042,7 @@
         <v>44307</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="9">
         <v>3</v>
       </c>
@@ -1036,7 +1089,7 @@
         <v>44314</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="13">
         <v>4</v>
       </c>
@@ -1075,28 +1128,142 @@
       </c>
       <c r="O10" s="13"/>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="41">
+    <row r="11" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="28">
         <v>5</v>
       </c>
-      <c r="B11" s="41" t="s">
+      <c r="B11" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="41" t="s">
+      <c r="C11" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="28"/>
+      <c r="F11" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11" s="42">
+        <v>43957</v>
+      </c>
+      <c r="H11" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="I11" s="42">
+        <v>43957</v>
+      </c>
+      <c r="J11" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="K11" s="42">
+        <v>43957</v>
+      </c>
+      <c r="L11" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="M11" s="42">
+        <v>43957</v>
+      </c>
+      <c r="N11" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="O11" s="42">
+        <v>43957</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="28">
+        <v>6</v>
+      </c>
+      <c r="B12" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="41"/>
-      <c r="K11" s="41"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="41"/>
-      <c r="N11" s="41"/>
-      <c r="O11" s="41"/>
+      <c r="C12" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="43">
+        <v>43964</v>
+      </c>
+      <c r="F12" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="G12" s="43">
+        <v>43964</v>
+      </c>
+      <c r="H12" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" s="43">
+        <v>43964</v>
+      </c>
+      <c r="J12" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="K12" s="43">
+        <v>43964</v>
+      </c>
+      <c r="L12" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="M12" s="28"/>
+      <c r="N12" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="O12" s="45">
+        <v>43964</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="28">
+        <v>7</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="43">
+        <v>43971</v>
+      </c>
+      <c r="F13" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" s="42">
+        <v>43971</v>
+      </c>
+      <c r="H13" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="I13" s="42">
+        <v>43971</v>
+      </c>
+      <c r="J13" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="K13" s="43">
+        <v>43971</v>
+      </c>
+      <c r="L13" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="M13" s="42">
+        <v>43971</v>
+      </c>
+      <c r="N13" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="O13" s="45">
+        <v>43971</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/Tasks/Task_List.xlsx
+++ b/Tasks/Task_List.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marwahassan/Desktop/Git/Tasks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\Miguel\HSHL\4. Vierte Semester\Prototyping\microbot\Tasks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6669005A-B21E-C04A-897E-410D6E400A71}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C99CB6CE-9D23-4943-80F8-8A5331BD8A85}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -142,9 +142,6 @@
     <t xml:space="preserve">shared tasks based on required Presention </t>
   </si>
   <si>
-    <t>Solidwork (3Dmodel ,Legs ,Case)</t>
-  </si>
-  <si>
     <t>Solidwork (turbine)</t>
   </si>
   <si>
@@ -182,6 +179,9 @@
   </si>
   <si>
     <t>Research</t>
+  </si>
+  <si>
+    <t>Solidwork (3Dmodel ,Legs ,Case and assemble)</t>
   </si>
 </sst>
 </file>
@@ -484,7 +484,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -564,6 +564,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="15" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="12" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -591,10 +595,12 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="15" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="12" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -822,86 +828,86 @@
   <dimension ref="A3:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" customWidth="1"/>
-    <col min="2" max="2" width="20.5" customWidth="1"/>
-    <col min="3" max="3" width="98.83203125" customWidth="1"/>
-    <col min="4" max="4" width="33" customWidth="1"/>
-    <col min="6" max="6" width="38.83203125" customWidth="1"/>
-    <col min="8" max="8" width="24.1640625" customWidth="1"/>
-    <col min="10" max="10" width="25.33203125" customWidth="1"/>
-    <col min="12" max="12" width="24.83203125" customWidth="1"/>
-    <col min="14" max="14" width="32.5" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
+    <col min="3" max="3" width="49.5703125" customWidth="1"/>
+    <col min="4" max="4" width="30.7109375" customWidth="1"/>
+    <col min="6" max="6" width="27.5703125" customWidth="1"/>
+    <col min="8" max="8" width="26.42578125" customWidth="1"/>
+    <col min="10" max="10" width="25.28515625" customWidth="1"/>
+    <col min="12" max="12" width="24.85546875" customWidth="1"/>
+    <col min="14" max="14" width="32.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:15" ht="13" x14ac:dyDescent="0.15">
-      <c r="A3" s="29" t="s">
+    <row r="3" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="31"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="35"/>
     </row>
-    <row r="4" spans="1:15" ht="13" x14ac:dyDescent="0.15">
-      <c r="A4" s="32"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="33"/>
-      <c r="O4" s="34"/>
+    <row r="4" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="36"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="38"/>
     </row>
-    <row r="5" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
-      <c r="D5" s="35" t="s">
+      <c r="D5" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="36"/>
-      <c r="F5" s="37" t="s">
+      <c r="E5" s="40"/>
+      <c r="F5" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="36"/>
-      <c r="H5" s="38" t="s">
+      <c r="G5" s="40"/>
+      <c r="H5" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="36"/>
-      <c r="J5" s="39" t="s">
+      <c r="I5" s="40"/>
+      <c r="J5" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="36"/>
-      <c r="L5" s="40" t="s">
+      <c r="K5" s="40"/>
+      <c r="L5" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="M5" s="36"/>
-      <c r="N5" s="41" t="s">
+      <c r="M5" s="40"/>
+      <c r="N5" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="O5" s="36"/>
+      <c r="O5" s="40"/>
     </row>
-    <row r="6" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
@@ -948,7 +954,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="28" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>1</v>
       </c>
@@ -995,7 +1001,7 @@
         <v>44297</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>2</v>
       </c>
@@ -1042,7 +1048,7 @@
         <v>44307</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:15" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
         <v>3</v>
       </c>
@@ -1089,7 +1095,7 @@
         <v>44314</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="13">
         <v>4</v>
       </c>
@@ -1128,52 +1134,52 @@
       </c>
       <c r="O10" s="13"/>
     </row>
-    <row r="11" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="28">
         <v>5</v>
       </c>
       <c r="B11" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="44" t="s">
+      <c r="C11" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="44" t="s">
-        <v>53</v>
-      </c>
       <c r="E11" s="28"/>
-      <c r="F11" s="44" t="s">
-        <v>53</v>
-      </c>
-      <c r="G11" s="42">
+      <c r="F11" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" s="29">
         <v>43957</v>
       </c>
-      <c r="H11" s="44" t="s">
-        <v>53</v>
-      </c>
-      <c r="I11" s="42">
+      <c r="H11" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="I11" s="29">
         <v>43957</v>
       </c>
-      <c r="J11" s="44" t="s">
-        <v>53</v>
-      </c>
-      <c r="K11" s="42">
+      <c r="J11" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="K11" s="29">
         <v>43957</v>
       </c>
-      <c r="L11" s="44" t="s">
-        <v>53</v>
-      </c>
-      <c r="M11" s="42">
+      <c r="L11" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="M11" s="29">
         <v>43957</v>
       </c>
-      <c r="N11" s="44" t="s">
-        <v>53</v>
-      </c>
-      <c r="O11" s="42">
+      <c r="N11" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="O11" s="29">
         <v>43957</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="28">
         <v>6</v>
       </c>
@@ -1183,42 +1189,42 @@
       <c r="C12" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="44" t="s">
-        <v>51</v>
-      </c>
-      <c r="E12" s="43">
+      <c r="D12" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="30">
         <v>43964</v>
       </c>
-      <c r="F12" s="28" t="s">
+      <c r="F12" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="30">
+        <v>43964</v>
+      </c>
+      <c r="H12" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="G12" s="43">
+      <c r="I12" s="30">
         <v>43964</v>
       </c>
-      <c r="H12" s="44" t="s">
+      <c r="J12" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="K12" s="30">
+        <v>43964</v>
+      </c>
+      <c r="L12" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="M12" s="28"/>
+      <c r="N12" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="I12" s="43">
+      <c r="O12" s="32">
         <v>43964</v>
       </c>
-      <c r="J12" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="K12" s="43">
-        <v>43964</v>
-      </c>
-      <c r="L12" s="44" t="s">
-        <v>49</v>
-      </c>
-      <c r="M12" s="28"/>
-      <c r="N12" s="44" t="s">
-        <v>48</v>
-      </c>
-      <c r="O12" s="45">
-        <v>43964</v>
-      </c>
     </row>
-    <row r="13" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="28">
         <v>7</v>
       </c>
@@ -1228,40 +1234,40 @@
       <c r="C13" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="28" t="s">
+      <c r="D13" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" s="30">
+        <v>43971</v>
+      </c>
+      <c r="F13" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="29">
+        <v>43971</v>
+      </c>
+      <c r="H13" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="I13" s="29">
+        <v>43971</v>
+      </c>
+      <c r="J13" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="43">
+      <c r="K13" s="30">
         <v>43971</v>
       </c>
-      <c r="F13" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="G13" s="42">
+      <c r="L13" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="M13" s="29">
         <v>43971</v>
       </c>
-      <c r="H13" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="I13" s="42">
-        <v>43971</v>
-      </c>
-      <c r="J13" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="K13" s="43">
-        <v>43971</v>
-      </c>
-      <c r="L13" s="28" t="s">
+      <c r="N13" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="M13" s="42">
-        <v>43971</v>
-      </c>
-      <c r="N13" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="O13" s="45">
+      <c r="O13" s="32">
         <v>43971</v>
       </c>
     </row>

--- a/Tasks/Task_List.xlsx
+++ b/Tasks/Task_List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\Miguel\HSHL\4. Vierte Semester\Prototyping\microbot\Tasks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C99CB6CE-9D23-4943-80F8-8A5331BD8A85}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EA07735-020A-45A4-94E8-ABDCCB1531E1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="62">
   <si>
     <t>RESCUBOT</t>
   </si>
@@ -130,15 +130,6 @@
     <t>03-05-2021</t>
   </si>
   <si>
-    <t>Prototypying task 1</t>
-  </si>
-  <si>
-    <t>Prototypying task 2</t>
-  </si>
-  <si>
-    <t>Prototypying task 3</t>
-  </si>
-  <si>
     <t xml:space="preserve">shared tasks based on required Presention </t>
   </si>
   <si>
@@ -182,6 +173,39 @@
   </si>
   <si>
     <t>Solidwork (3Dmodel ,Legs ,Case and assemble)</t>
+  </si>
+  <si>
+    <t>Prototyping task 4</t>
+  </si>
+  <si>
+    <t>Prototyping task 1</t>
+  </si>
+  <si>
+    <t>Prototyping task 2</t>
+  </si>
+  <si>
+    <t>Prototyping task 3</t>
+  </si>
+  <si>
+    <t>Finilize the prototupe and prepare presentation</t>
+  </si>
+  <si>
+    <t>Animation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solidworks </t>
+  </si>
+  <si>
+    <t>Solidworks legs reinforcement, sensors bases, joint tolerances</t>
+  </si>
+  <si>
+    <t>Electonic components</t>
+  </si>
+  <si>
+    <t>Electronic Componenets</t>
+  </si>
+  <si>
+    <t>Electronic components</t>
   </si>
 </sst>
 </file>
@@ -484,7 +508,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -568,6 +592,12 @@
     <xf numFmtId="14" fontId="0" fillId="15" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="12" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -595,12 +625,7 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -825,10 +850,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A3:O13"/>
+  <dimension ref="A3:O14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -845,67 +870,67 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="34"/>
-      <c r="N3" s="34"/>
-      <c r="O3" s="35"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="37"/>
     </row>
     <row r="4" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="36"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37"/>
-      <c r="N4" s="37"/>
-      <c r="O4" s="38"/>
+      <c r="A4" s="38"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="40"/>
     </row>
     <row r="5" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
-      <c r="D5" s="39" t="s">
+      <c r="D5" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="40"/>
-      <c r="F5" s="41" t="s">
+      <c r="E5" s="42"/>
+      <c r="F5" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="40"/>
-      <c r="H5" s="42" t="s">
+      <c r="G5" s="42"/>
+      <c r="H5" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="40"/>
-      <c r="J5" s="43" t="s">
+      <c r="I5" s="42"/>
+      <c r="J5" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="40"/>
-      <c r="L5" s="44" t="s">
+      <c r="K5" s="42"/>
+      <c r="L5" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="M5" s="40"/>
-      <c r="N5" s="45" t="s">
+      <c r="M5" s="42"/>
+      <c r="N5" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="O5" s="40"/>
+      <c r="O5" s="42"/>
     </row>
     <row r="6" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
@@ -1139,41 +1164,41 @@
         <v>5</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="46" t="s">
-        <v>51</v>
+        <v>52</v>
+      </c>
+      <c r="C11" s="33" t="s">
+        <v>48</v>
       </c>
       <c r="D11" s="31" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E11" s="28"/>
       <c r="F11" s="31" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G11" s="29">
         <v>43957</v>
       </c>
       <c r="H11" s="31" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I11" s="29">
         <v>43957</v>
       </c>
       <c r="J11" s="31" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="K11" s="29">
         <v>43957</v>
       </c>
       <c r="L11" s="31" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="M11" s="29">
         <v>43957</v>
       </c>
       <c r="N11" s="31" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="O11" s="29">
         <v>43957</v>
@@ -1184,41 +1209,41 @@
         <v>6</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E12" s="30">
         <v>43964</v>
       </c>
-      <c r="F12" s="47" t="s">
-        <v>45</v>
+      <c r="F12" s="34" t="s">
+        <v>42</v>
       </c>
       <c r="G12" s="30">
         <v>43964</v>
       </c>
       <c r="H12" s="31" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I12" s="30">
         <v>43964</v>
       </c>
       <c r="J12" s="31" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K12" s="30">
         <v>43964</v>
       </c>
       <c r="L12" s="31" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="M12" s="28"/>
       <c r="N12" s="31" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="O12" s="32">
         <v>43964</v>
@@ -1229,47 +1254,82 @@
         <v>7</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="46" t="s">
-        <v>53</v>
+        <v>36</v>
+      </c>
+      <c r="D13" s="33" t="s">
+        <v>50</v>
       </c>
       <c r="E13" s="30">
         <v>43971</v>
       </c>
       <c r="F13" s="28" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G13" s="29">
         <v>43971</v>
       </c>
       <c r="H13" s="28" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I13" s="29">
         <v>43971</v>
       </c>
       <c r="J13" s="28" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="K13" s="30">
         <v>43971</v>
       </c>
       <c r="L13" s="28" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="M13" s="29">
         <v>43971</v>
       </c>
       <c r="N13" s="28" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="O13" s="32">
         <v>43971</v>
       </c>
+    </row>
+    <row r="14" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="48">
+        <v>8</v>
+      </c>
+      <c r="B14" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="28"/>
+      <c r="F14" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14" s="28"/>
+      <c r="H14" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="I14" s="28"/>
+      <c r="J14" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="K14" s="28"/>
+      <c r="L14" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="M14" s="28"/>
+      <c r="N14" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="O14" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/Tasks/Task_List.xlsx
+++ b/Tasks/Task_List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marwahassan/Desktop/Git/Tasks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6669005A-B21E-C04A-897E-410D6E400A71}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70D3C629-5EDC-EF42-8AE5-053240A97BD7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -157,9 +157,6 @@
     <t>Calculate components weight</t>
   </si>
   <si>
-    <t>2D animation ,solid work (chassis )</t>
-  </si>
-  <si>
     <t xml:space="preserve">Materials needed +Chassis hand sktch </t>
   </si>
   <si>
@@ -182,6 +179,9 @@
   </si>
   <si>
     <t>Research</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2D animation </t>
   </si>
 </sst>
 </file>
@@ -201,32 +201,38 @@
       <sz val="24"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -240,7 +246,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -285,50 +291,32 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF6600"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF6600"/>
-        <bgColor rgb="FFFF9900"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF6600"/>
-        <bgColor rgb="FF00FF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF6600"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FF00FF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FF00FF00"/>
+        <bgColor rgb="FFFF9900"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00FF00"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FF00FF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -484,7 +472,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -503,15 +491,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -521,49 +503,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="10" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="12" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="13" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="14" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="13" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="14" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="15" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="15" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="15" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="15" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -591,10 +550,22 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="15" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="12" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="8" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="12" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -821,8 +792,8 @@
   </sheetPr>
   <dimension ref="A3:O13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -839,67 +810,67 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:15" ht="13" x14ac:dyDescent="0.15">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="31"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="24"/>
     </row>
     <row r="4" spans="1:15" ht="13" x14ac:dyDescent="0.15">
-      <c r="A4" s="32"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="33"/>
-      <c r="O4" s="34"/>
+      <c r="A4" s="25"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="27"/>
     </row>
     <row r="5" spans="1:15" ht="13" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
-      <c r="D5" s="35" t="s">
+      <c r="D5" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="36"/>
-      <c r="F5" s="37" t="s">
+      <c r="E5" s="29"/>
+      <c r="F5" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="36"/>
-      <c r="H5" s="38" t="s">
+      <c r="G5" s="29"/>
+      <c r="H5" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="36"/>
-      <c r="J5" s="39" t="s">
+      <c r="I5" s="29"/>
+      <c r="J5" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="36"/>
-      <c r="L5" s="40" t="s">
+      <c r="K5" s="29"/>
+      <c r="L5" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="M5" s="36"/>
-      <c r="N5" s="41" t="s">
+      <c r="M5" s="29"/>
+      <c r="N5" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="O5" s="36"/>
+      <c r="O5" s="29"/>
     </row>
     <row r="6" spans="1:15" ht="13" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
@@ -948,7 +919,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="28" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <v>1</v>
       </c>
@@ -961,37 +932,37 @@
       <c r="D7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="23">
+      <c r="E7" s="12">
         <v>44297</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="24">
+      <c r="G7" s="13">
         <v>44296</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7" s="13">
         <v>44296</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K7" s="19">
+      <c r="K7" s="36">
         <v>44297</v>
       </c>
       <c r="L7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M7" s="21">
+      <c r="M7" s="13">
         <v>44297</v>
       </c>
       <c r="N7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O7" s="14">
+      <c r="O7" s="12">
         <v>44297</v>
       </c>
     </row>
@@ -1008,260 +979,260 @@
       <c r="D8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="24">
+      <c r="E8" s="13">
         <v>44307</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="24">
+      <c r="G8" s="13">
         <v>44307</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="15">
+      <c r="I8" s="37">
         <v>44307</v>
       </c>
       <c r="J8" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K8" s="20">
+      <c r="K8" s="38">
         <v>44307</v>
       </c>
       <c r="L8" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="M8" s="22">
+      <c r="M8" s="39">
         <v>44307</v>
       </c>
       <c r="N8" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="O8" s="17">
+      <c r="O8" s="38">
         <v>44307</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="9">
+      <c r="A9" s="8">
         <v>3</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="25">
+      <c r="E9" s="14">
         <v>44315</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="25">
+      <c r="G9" s="14">
         <v>44315</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="H9" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="I9" s="16">
+      <c r="I9" s="40">
         <v>44315</v>
       </c>
-      <c r="J9" s="11" t="s">
+      <c r="J9" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="K9" s="18">
+      <c r="K9" s="14">
         <v>44314</v>
       </c>
-      <c r="L9" s="11" t="s">
+      <c r="L9" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="M9" s="10">
+      <c r="M9" s="14">
         <v>44315</v>
       </c>
-      <c r="N9" s="11" t="s">
+      <c r="N9" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="O9" s="10">
+      <c r="O9" s="14">
         <v>44314</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="13">
+      <c r="A10" s="11">
         <v>4</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="26" t="s">
+      <c r="E10" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="G10" s="27">
+      <c r="G10" s="16">
         <v>44319</v>
       </c>
-      <c r="H10" s="12" t="s">
+      <c r="H10" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="I10" s="13"/>
-      <c r="J10" s="12" t="s">
+      <c r="I10" s="11"/>
+      <c r="J10" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="K10" s="13"/>
-      <c r="L10" s="12" t="s">
+      <c r="K10" s="11"/>
+      <c r="L10" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="M10" s="13"/>
-      <c r="N10" s="12" t="s">
+      <c r="M10" s="11"/>
+      <c r="N10" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="O10" s="13"/>
+      <c r="O10" s="11"/>
     </row>
     <row r="11" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="28">
+      <c r="A11" s="17">
         <v>5</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="44" t="s">
+      <c r="C11" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="44" t="s">
-        <v>53</v>
-      </c>
-      <c r="E11" s="28"/>
-      <c r="F11" s="44" t="s">
-        <v>53</v>
-      </c>
-      <c r="G11" s="42">
+      <c r="E11" s="17"/>
+      <c r="F11" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" s="18">
         <v>43957</v>
       </c>
-      <c r="H11" s="44" t="s">
-        <v>53</v>
-      </c>
-      <c r="I11" s="42">
+      <c r="H11" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="I11" s="18">
         <v>43957</v>
       </c>
-      <c r="J11" s="44" t="s">
-        <v>53</v>
-      </c>
-      <c r="K11" s="42">
+      <c r="J11" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="K11" s="18">
         <v>43957</v>
       </c>
-      <c r="L11" s="44" t="s">
-        <v>53</v>
-      </c>
-      <c r="M11" s="42">
+      <c r="L11" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="M11" s="18">
         <v>43957</v>
       </c>
-      <c r="N11" s="44" t="s">
-        <v>53</v>
-      </c>
-      <c r="O11" s="42">
+      <c r="N11" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="O11" s="18">
         <v>43957</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="28">
+      <c r="A12" s="17">
         <v>6</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="44" t="s">
-        <v>51</v>
-      </c>
-      <c r="E12" s="43">
+      <c r="D12" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="19">
         <v>43964</v>
       </c>
-      <c r="F12" s="28" t="s">
+      <c r="F12" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="19">
+        <v>43964</v>
+      </c>
+      <c r="H12" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="G12" s="43">
+      <c r="I12" s="19">
         <v>43964</v>
       </c>
-      <c r="H12" s="44" t="s">
+      <c r="J12" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="K12" s="19">
+        <v>43964</v>
+      </c>
+      <c r="L12" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="M12" s="17"/>
+      <c r="N12" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="I12" s="43">
-        <v>43964</v>
-      </c>
-      <c r="J12" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="K12" s="43">
-        <v>43964</v>
-      </c>
-      <c r="L12" s="44" t="s">
-        <v>49</v>
-      </c>
-      <c r="M12" s="28"/>
-      <c r="N12" s="44" t="s">
-        <v>48</v>
-      </c>
-      <c r="O12" s="45">
+      <c r="O12" s="19">
         <v>43964</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="28">
+      <c r="A13" s="17">
         <v>7</v>
       </c>
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="28" t="s">
+      <c r="C13" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="28" t="s">
+      <c r="D13" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="43">
+      <c r="E13" s="19">
         <v>43971</v>
       </c>
-      <c r="F13" s="28" t="s">
+      <c r="F13" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="G13" s="42">
+      <c r="G13" s="19">
         <v>43971</v>
       </c>
-      <c r="H13" s="28" t="s">
+      <c r="H13" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="I13" s="42">
+      <c r="I13" s="19">
         <v>43971</v>
       </c>
-      <c r="J13" s="28" t="s">
+      <c r="J13" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="K13" s="43">
+      <c r="K13" s="19">
         <v>43971</v>
       </c>
-      <c r="L13" s="28" t="s">
+      <c r="L13" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="M13" s="42">
+      <c r="M13" s="19">
         <v>43971</v>
       </c>
-      <c r="N13" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="O13" s="45">
+      <c r="N13" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="O13" s="21">
         <v>43971</v>
       </c>
     </row>

--- a/Tasks/Task_List.xlsx
+++ b/Tasks/Task_List.xlsx
@@ -1,26 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\Miguel\HSHL\4. Vierte Semester\Prototyping\microbot\Tasks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EA07735-020A-45A4-94E8-ABDCCB1531E1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD00FB2D-FC08-410E-95CA-64BBF0AC9C2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="69">
   <si>
     <t>RESCUBOT</t>
   </si>
@@ -206,6 +217,27 @@
   </si>
   <si>
     <t>Electronic components</t>
+  </si>
+  <si>
+    <t>Programming task 1</t>
+  </si>
+  <si>
+    <t>Coding</t>
+  </si>
+  <si>
+    <t>Programming task 2</t>
+  </si>
+  <si>
+    <t>Complete the programm for task 2</t>
+  </si>
+  <si>
+    <t>Complete the programm for task 1</t>
+  </si>
+  <si>
+    <t>Programming task 3</t>
+  </si>
+  <si>
+    <t>Complete the programm for task 3</t>
   </si>
 </sst>
 </file>
@@ -215,7 +247,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\-mm\-yyyy"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -263,6 +295,10 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="16">
     <fill>
@@ -508,7 +544,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -598,6 +634,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -625,7 +662,8 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -850,10 +888,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A3:O14"/>
+  <dimension ref="A3:O17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -870,67 +908,67 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="36"/>
-      <c r="N3" s="36"/>
-      <c r="O3" s="37"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="38"/>
     </row>
     <row r="4" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="38"/>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="39"/>
-      <c r="O4" s="40"/>
+      <c r="A4" s="39"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="41"/>
     </row>
     <row r="5" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
-      <c r="D5" s="41" t="s">
+      <c r="D5" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="42"/>
-      <c r="F5" s="43" t="s">
+      <c r="E5" s="43"/>
+      <c r="F5" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="42"/>
-      <c r="H5" s="44" t="s">
+      <c r="G5" s="43"/>
+      <c r="H5" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="42"/>
-      <c r="J5" s="45" t="s">
+      <c r="I5" s="43"/>
+      <c r="J5" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="42"/>
-      <c r="L5" s="46" t="s">
+      <c r="K5" s="43"/>
+      <c r="L5" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="M5" s="42"/>
-      <c r="N5" s="47" t="s">
+      <c r="M5" s="43"/>
+      <c r="N5" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="O5" s="42"/>
+      <c r="O5" s="43"/>
     </row>
     <row r="6" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
@@ -1297,10 +1335,10 @@
       </c>
     </row>
     <row r="14" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="48">
+      <c r="A14" s="35">
         <v>8</v>
       </c>
-      <c r="B14" s="48" t="s">
+      <c r="B14" s="35" t="s">
         <v>51</v>
       </c>
       <c r="C14" s="31" t="s">
@@ -1309,27 +1347,128 @@
       <c r="D14" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="E14" s="28"/>
+      <c r="E14" s="30">
+        <v>43978</v>
+      </c>
       <c r="F14" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="G14" s="28"/>
+      <c r="G14" s="30">
+        <v>43978</v>
+      </c>
       <c r="H14" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="I14" s="28"/>
+      <c r="I14" s="30">
+        <v>43978</v>
+      </c>
       <c r="J14" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="K14" s="28"/>
+      <c r="K14" s="30">
+        <v>43978</v>
+      </c>
       <c r="L14" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="M14" s="28"/>
-      <c r="N14" s="48" t="s">
+      <c r="M14" s="30">
+        <v>43978</v>
+      </c>
+      <c r="N14" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="O14" s="28"/>
+      <c r="O14" s="49">
+        <v>43978</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="35">
+        <v>9</v>
+      </c>
+      <c r="B15" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" s="30">
+        <v>43985</v>
+      </c>
+      <c r="F15" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="G15" s="30">
+        <v>43985</v>
+      </c>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="28"/>
+      <c r="O15" s="28"/>
+    </row>
+    <row r="16" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="35">
+        <v>10</v>
+      </c>
+      <c r="B16" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" s="50" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="30">
+        <v>43992</v>
+      </c>
+      <c r="F16" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="G16" s="30">
+        <v>43992</v>
+      </c>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="28"/>
+      <c r="N16" s="28"/>
+      <c r="O16" s="28"/>
+    </row>
+    <row r="17" spans="1:15" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="35">
+        <v>11</v>
+      </c>
+      <c r="B17" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" s="28"/>
+      <c r="F17" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="28"/>
+      <c r="N17" s="28"/>
+      <c r="O17" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1341,6 +1480,7 @@
     <mergeCell ref="L5:M5"/>
     <mergeCell ref="N5:O5"/>
   </mergeCells>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Tasks/Task_List.xlsx
+++ b/Tasks/Task_List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\Miguel\HSHL\4. Vierte Semester\Prototyping\microbot\Tasks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD00FB2D-FC08-410E-95CA-64BBF0AC9C2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E761AFF8-8678-4C0D-B45D-CC14A0F9C323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="69">
   <si>
     <t>RESCUBOT</t>
   </si>
@@ -635,6 +635,8 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -662,8 +664,6 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -891,7 +891,7 @@
   <dimension ref="A3:O17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -908,67 +908,67 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
-      <c r="N3" s="37"/>
-      <c r="O3" s="38"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="40"/>
     </row>
     <row r="4" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="39"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
-      <c r="O4" s="41"/>
+      <c r="A4" s="41"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="43"/>
     </row>
     <row r="5" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
-      <c r="D5" s="42" t="s">
+      <c r="D5" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="43"/>
-      <c r="F5" s="44" t="s">
+      <c r="E5" s="45"/>
+      <c r="F5" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="43"/>
-      <c r="H5" s="45" t="s">
+      <c r="G5" s="45"/>
+      <c r="H5" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="43"/>
-      <c r="J5" s="46" t="s">
+      <c r="I5" s="45"/>
+      <c r="J5" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="43"/>
-      <c r="L5" s="47" t="s">
+      <c r="K5" s="45"/>
+      <c r="L5" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="M5" s="43"/>
-      <c r="N5" s="48" t="s">
+      <c r="M5" s="45"/>
+      <c r="N5" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="O5" s="43"/>
+      <c r="O5" s="45"/>
     </row>
     <row r="6" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
@@ -1377,7 +1377,7 @@
       <c r="N14" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="O14" s="49">
+      <c r="O14" s="36">
         <v>43978</v>
       </c>
     </row>
@@ -1388,7 +1388,7 @@
       <c r="B15" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="C15" s="50" t="s">
+      <c r="C15" s="37" t="s">
         <v>66</v>
       </c>
       <c r="D15" s="28" t="s">
@@ -1397,7 +1397,7 @@
       <c r="E15" s="30">
         <v>43985</v>
       </c>
-      <c r="F15" s="50" t="s">
+      <c r="F15" s="37" t="s">
         <v>63</v>
       </c>
       <c r="G15" s="30">
@@ -1419,7 +1419,7 @@
       <c r="B16" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="C16" s="50" t="s">
+      <c r="C16" s="37" t="s">
         <v>65</v>
       </c>
       <c r="D16" s="28" t="s">
@@ -1428,14 +1428,18 @@
       <c r="E16" s="30">
         <v>43992</v>
       </c>
-      <c r="F16" s="50" t="s">
+      <c r="F16" s="37" t="s">
         <v>63</v>
       </c>
       <c r="G16" s="30">
         <v>43992</v>
       </c>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
+      <c r="H16" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="I16" s="30">
+        <v>43992</v>
+      </c>
       <c r="J16" s="28"/>
       <c r="K16" s="28"/>
       <c r="L16" s="28"/>
@@ -1450,14 +1454,14 @@
       <c r="B17" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="C17" s="50" t="s">
+      <c r="C17" s="37" t="s">
         <v>68</v>
       </c>
       <c r="D17" s="28" t="s">
         <v>63</v>
       </c>
       <c r="E17" s="28"/>
-      <c r="F17" s="50" t="s">
+      <c r="F17" s="37" t="s">
         <v>63</v>
       </c>
       <c r="G17" s="28"/>

--- a/Tasks/Task_List.xlsx
+++ b/Tasks/Task_List.xlsx
@@ -1,37 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11012"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\Miguel\HSHL\4. Vierte Semester\Prototyping\microbot\Tasks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/MARWA/microbot/Tasks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E761AFF8-8678-4C0D-B45D-CC14A0F9C323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F1AD710-E2BA-8345-9B69-EF19E4BC8A46}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="71">
   <si>
     <t>RESCUBOT</t>
   </si>
@@ -238,6 +227,12 @@
   </si>
   <si>
     <t>Complete the programm for task 3</t>
+  </si>
+  <si>
+    <t>Programming task 4</t>
+  </si>
+  <si>
+    <t>Complete the programm for task 4</t>
   </si>
 </sst>
 </file>
@@ -392,7 +387,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -540,11 +535,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -664,6 +670,7 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -888,26 +895,26 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A3:O17"/>
+  <dimension ref="A3:O18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" customWidth="1"/>
-    <col min="3" max="3" width="49.5703125" customWidth="1"/>
-    <col min="4" max="4" width="30.7109375" customWidth="1"/>
-    <col min="6" max="6" width="27.5703125" customWidth="1"/>
-    <col min="8" max="8" width="26.42578125" customWidth="1"/>
-    <col min="10" max="10" width="25.28515625" customWidth="1"/>
-    <col min="12" max="12" width="24.85546875" customWidth="1"/>
-    <col min="14" max="14" width="32.42578125" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" customWidth="1"/>
+    <col min="2" max="2" width="20.5" customWidth="1"/>
+    <col min="3" max="3" width="49.5" customWidth="1"/>
+    <col min="4" max="4" width="30.6640625" customWidth="1"/>
+    <col min="6" max="6" width="27.5" customWidth="1"/>
+    <col min="8" max="8" width="26.5" customWidth="1"/>
+    <col min="10" max="10" width="25.33203125" customWidth="1"/>
+    <col min="12" max="12" width="24.83203125" customWidth="1"/>
+    <col min="14" max="14" width="32.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" ht="13" x14ac:dyDescent="0.15">
       <c r="A3" s="38" t="s">
         <v>0</v>
       </c>
@@ -926,7 +933,7 @@
       <c r="N3" s="39"/>
       <c r="O3" s="40"/>
     </row>
-    <row r="4" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" ht="13" x14ac:dyDescent="0.15">
       <c r="A4" s="41"/>
       <c r="B4" s="42"/>
       <c r="C4" s="42"/>
@@ -943,7 +950,7 @@
       <c r="N4" s="42"/>
       <c r="O4" s="43"/>
     </row>
-    <row r="5" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" ht="13" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
       <c r="D5" s="44" t="s">
         <v>1</v>
@@ -970,7 +977,7 @@
       </c>
       <c r="O5" s="45"/>
     </row>
-    <row r="6" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" ht="13" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
@@ -1017,7 +1024,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <v>1</v>
       </c>
@@ -1064,7 +1071,7 @@
         <v>44297</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="6">
         <v>2</v>
       </c>
@@ -1111,7 +1118,7 @@
         <v>44307</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="9">
         <v>3</v>
       </c>
@@ -1158,7 +1165,7 @@
         <v>44314</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="13">
         <v>4</v>
       </c>
@@ -1197,7 +1204,7 @@
       </c>
       <c r="O10" s="13"/>
     </row>
-    <row r="11" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="28">
         <v>5</v>
       </c>
@@ -1242,7 +1249,7 @@
         <v>43957</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="28">
         <v>6</v>
       </c>
@@ -1287,7 +1294,7 @@
         <v>43964</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="28">
         <v>7</v>
       </c>
@@ -1334,7 +1341,7 @@
         <v>43971</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="35">
         <v>8</v>
       </c>
@@ -1381,7 +1388,7 @@
         <v>43978</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="35">
         <v>9</v>
       </c>
@@ -1412,7 +1419,7 @@
       <c r="N15" s="28"/>
       <c r="O15" s="28"/>
     </row>
-    <row r="16" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="35">
         <v>10</v>
       </c>
@@ -1447,7 +1454,7 @@
       <c r="N16" s="28"/>
       <c r="O16" s="28"/>
     </row>
-    <row r="17" spans="1:15" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="35">
         <v>11</v>
       </c>
@@ -1460,7 +1467,9 @@
       <c r="D17" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="E17" s="28"/>
+      <c r="E17" s="29">
+        <v>43999</v>
+      </c>
       <c r="F17" s="37" t="s">
         <v>63</v>
       </c>
@@ -1473,6 +1482,23 @@
       <c r="M17" s="28"/>
       <c r="N17" s="28"/>
       <c r="O17" s="28"/>
+    </row>
+    <row r="18" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="51">
+        <v>12</v>
+      </c>
+      <c r="B18" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18" s="29">
+        <v>44371</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="7">
